--- a/tests/data/test_update_missing_metadata_v2.xlsx
+++ b/tests/data/test_update_missing_metadata_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\local_documents\GitHub Projects\PokemonExcelParser\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613998FE-A3B3-4933-AE99-A2172EDD8D1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E62C33-9AAC-495E-AC45-516A09F168CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78BC78BC-29BB-4F6D-966B-C0ED778393B8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Card #</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Not Missing</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -402,18 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C793CC09-1384-4169-8F40-1E1A627FBB9C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -426,8 +430,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -435,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -448,8 +455,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -457,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>

--- a/tests/data/test_update_missing_metadata_v2.xlsx
+++ b/tests/data/test_update_missing_metadata_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\local_documents\GitHub Projects\PokemonExcelParser\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E62C33-9AAC-495E-AC45-516A09F168CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D81D02-09EB-4F3F-9687-727AC4C38848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78BC78BC-29BB-4F6D-966B-C0ED778393B8}"/>
   </bookViews>
@@ -33,17 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Card #</t>
   </si>
   <si>
-    <t>4 Owned</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -54,6 +48,9 @@
   </si>
   <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t># Owned</t>
   </si>
 </sst>
 </file>
@@ -408,7 +405,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,60 +416,60 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
+      <c r="C2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
+      <c r="C3">
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
+      <c r="C4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
+      <c r="C5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
